--- a/铝/eta/氧化铝周度表需_月度数据.xlsx
+++ b/铝/eta/氧化铝周度表需_月度数据.xlsx
@@ -471,7 +471,7 @@
         <v>181.53</v>
       </c>
       <c r="C3" t="n">
-        <v>182.18</v>
+        <v>182.08</v>
       </c>
     </row>
     <row r="4">
